--- a/biology/Zoologie/Chiasmocleis_ventrimaculata/Chiasmocleis_ventrimaculata.xlsx
+++ b/biology/Zoologie/Chiasmocleis_ventrimaculata/Chiasmocleis_ventrimaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis ventrimaculata est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis ventrimaculata est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans l'est de l'Équateur ;
 dans l'est du Pérou ;
 dans le nord de la Bolivie dans les départements de Cochabamba et de Beni.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Cocroft et Hambler[2], Chiasmocleis ventrimaculata entretient un mutualisme avec Xenesthis immanis, une araignée mygalomorphe. Cette dernière protègerait l'amphibien de ses prédateurs et la grenouille mangerait les fourmis s'attaquant aux œufs de l'araignée. Les deux animaux partageraient le même repaire durant la journée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Cocroft et Hambler, Chiasmocleis ventrimaculata entretient un mutualisme avec Xenesthis immanis, une araignée mygalomorphe. Cette dernière protègerait l'amphibien de ses prédateurs et la grenouille mangerait les fourmis s'attaquant aux œufs de l'araignée. Les deux animaux partageraient le même repaire durant la journée.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andersson, 1945 : Batrachians from East Ecuador, collected 1937, 1938 by Wm. Clarke-Macintyre and Rolf Blomberg. Arkiv för Zoologi, vol. 37, p. 1-88.</t>
         </is>
